--- a/Test_Data/OrangeHRM_Test_Data.xlsx
+++ b/Test_Data/OrangeHRM_Test_Data.xlsx
@@ -35,7 +35,7 @@
     <font>
       <name val="Calibri"/>
       <family val="2"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1" tint="0.0499893185216834"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -531,7 +531,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>Login Successful</t>
+          <t>Login Failed</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -541,7 +541,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
